--- a/outputs-HGR-r202/g__F0040.xlsx
+++ b/outputs-HGR-r202/g__F0040.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,82 +447,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>rejection-f</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43377.fa</t>
+          <t>even_MAG-GUT59149.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s__F0040 sp900095835</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>s__F0040 sp900095835</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT59149.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>s__F0040 sp900095835</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT76518.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>s__F0040 sp900095835</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78579.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>s__F0040 sp900095835</t>
         </is>
